--- a/biology/Zoologie/Acropora_abrolhosensis/Acropora_abrolhosensis.xlsx
+++ b/biology/Zoologie/Acropora_abrolhosensis/Acropora_abrolhosensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acropora abrolhosensis est une espèce de coraux appartenant à la famille des Acroporidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été nommé à cause de son abondance aux Îles Houtman Abrolhos[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été nommé à cause de son abondance aux Îles Houtman Abrolhos.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce fut décrite pour la première fois par J. E. N. Veron en 1985, en Australie de l'ouest[2]. Ensuite, en 1990, Veron le retrouve à nouveau au nord de l'île Éfaté, au Vanuatu[3]. En 1998, on découvre un spécimen à Rat Island, une île au sud d'Houtman Abrolhos[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce fut décrite pour la première fois par J. E. N. Veron en 1985, en Australie de l'ouest. Ensuite, en 1990, Veron le retrouve à nouveau au nord de l'île Éfaté, au Vanuatu. En 1998, on découvre un spécimen à Rat Island, une île au sud d'Houtman Abrolhos.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acropora abrolhosensis est caractérisé par ses corallites radiales larges de 2,5 à 3,5 mm (3,2 dans le cas de l'holotype de Veron[2]), avec un diamètre intérieur de 0,9 à 1,5 mm[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acropora abrolhosensis est caractérisé par ses corallites radiales larges de 2,5 à 3,5 mm (3,2 dans le cas de l'holotype de Veron), avec un diamètre intérieur de 0,9 à 1,5 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Japon, en Australie, dans la mer de Corail, dans la Grande barrière de corail, dans la mer de la Chine orientale, à l'ouest du Pacifique et aux îles Salomon. Elle vit jusqu'à 18 m de profondeur, dans les lagons[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Japon, en Australie, dans la mer de Corail, dans la Grande barrière de corail, dans la mer de la Chine orientale, à l'ouest du Pacifique et aux îles Salomon. Elle vit jusqu'à 18 m de profondeur, dans les lagons.
 </t>
         </is>
       </c>
@@ -636,6 +656,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
